--- a/datos_usuarios.xlsx
+++ b/datos_usuarios.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +585,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1553443016</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Acisseyf</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
